--- a/Ciudades/Diccionario_Coleccion_Distancia.xlsx
+++ b/Ciudades/Diccionario_Coleccion_Distancia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Efrain_Duarte\Dropbox\DI_DropBox\DI_Efraín\Data_Municipios\Variables_Municipios\13_Variables_Euclidean_manzanas\TABLA_13_Variables_Euclidean_manzanas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ciudades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0AF677-FE89-4C9A-A86F-590801CA6820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B0CC91-5F10-4A43-8C84-5475EDF49B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="166">
   <si>
     <t>8_AREA</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>BSI</t>
-  </si>
-  <si>
-    <t>CELSIUS</t>
   </si>
   <si>
     <t>Numero</t>
@@ -1494,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2187,7 +2184,7 @@
         <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2195,7 +2192,7 @@
         <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2203,7 +2200,7 @@
         <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2211,15 +2208,15 @@
         <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2234,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FDFF43-6FC1-4894-9B01-0497D53C737A}">
   <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2246,64 +2243,64 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2311,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2">
         <v>214</v>
@@ -2373,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2">
         <v>220</v>
@@ -2435,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2">
         <v>255</v>
@@ -2497,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2">
         <v>216</v>
@@ -2554,7 +2551,7 @@
         <v>74</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2562,7 +2559,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2">
         <v>255</v>
@@ -2624,7 +2621,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2">
         <v>255</v>
@@ -2686,7 +2683,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2">
         <v>229</v>
@@ -2748,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2">
         <v>250</v>
@@ -2807,7 +2804,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="V12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -2863,13 +2860,13 @@
         <v>51</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -2925,13 +2922,13 @@
         <v>14</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2987,13 +2984,13 @@
         <v>31</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3037,13 +3034,13 @@
         <v>48</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3051,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2">
         <v>255</v>
@@ -3110,32 +3107,32 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="V20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="V29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="22:22" x14ac:dyDescent="0.3">
       <c r="V40" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="22:22" x14ac:dyDescent="0.3">
       <c r="V50" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="22:22" x14ac:dyDescent="0.3">
       <c r="V59" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="22:22" x14ac:dyDescent="0.3">
       <c r="V68" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="22:22" x14ac:dyDescent="0.3">
@@ -3160,7 +3157,7 @@
     </row>
     <row r="114" spans="22:22" x14ac:dyDescent="0.3">
       <c r="V114" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
